--- a/config_3.23/sgxxl_tower_climbing_config.xlsx
+++ b/config_3.23/sgxxl_tower_climbing_config.xlsx
@@ -848,23 +848,23 @@
     <t>"xxl_icon_a","xxl_icon_a","xxl_icon_a",</t>
   </si>
   <si>
-    <t>累计消除10个西瓜+10个7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消除10个BAR+10个苹果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消除10个苹果+10个铃铛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消除10个铃铛+10个西瓜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消除10个7+10个BAR</t>
+    <t>累计消除10个苹果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消除10个铃铛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消除10个西瓜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消除10个7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消除10个BAR</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1363,7 +1363,7 @@
   <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1407,7 +1407,7 @@
         <v>209</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>170</v>
@@ -1427,7 +1427,7 @@
         <v>212</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>170</v>
@@ -1447,7 +1447,7 @@
         <v>210</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>169</v>
@@ -1467,7 +1467,7 @@
         <v>215</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>169</v>
@@ -1487,7 +1487,7 @@
         <v>219</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>169</v>
